--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -1,197 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1C0135-B47D-4AB5-B1DF-598470CE14E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" r:id="rId1"/>
-    <sheet name="login" sheetId="2" r:id="rId2"/>
+    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
-  <si>
-    <t>用例id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>断言结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册公司管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.打开网页
-2.定位隐私条款单选框，点击
-3.定位注册公司系统按钮，点击
-4.定位公司管理员选框，点击
-5.定位完成按钮，点击
-6.定位公司名称输入框，输入没有注册过的公司名
-7.定位下一步按钮，点击
-8.定位用户名输入框，输入没有注册过的用户名
-9.定位邮箱输入框，输入正确格式的输入框
-10.定位电话号码输入框，输入没有注册过的电话号码
-11.定位获取验证码按钮，点击
-12.定位验证码输入框，输入正确的验证码
-13.定位确定按钮，点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定位到"注册成功"字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册普通用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.打开网页
-2.定位隐私条款单选框，点击
-3.定位注册公司系统按钮，点击
-4.定位公司员工选框，点击
-5.定位完成按钮，点击
-6.定位真实姓名输入框，输入正确的名称
-7.定位企业名称框，输入正确的名称
-8.定位企业名称下拉列表，选择正确的企业
-9.定位邮箱输入框，输入正确格式的邮箱
-10.定位联系电话号码输入框，输入没有注册过的电话号码
-11.定位验证码获取按钮，点击
-12.定位验证码输入框，输入正确的验证码
-13.定位完成按钮，点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员用户登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.打开网页
-2.定位手机号输入框，输入正确的手机号
-3.定位验证码获取按钮，点击
-4.定位验证码输入框，输入正确的验证码
-5.定位登录按钮，点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定位到各个菜单目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通用户登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"companya_name":"公司A",
-"user_name":"test",
-"email":"test@163.com",
-"phone":"137xxxxxxxx",
-"verfily_code":"",
-"expect_val":""
-}
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"user_name":"test",
-"companya_name":"公司A",
-"email":"test@163.com",
-"phone":"137xxxxxxxx",
-"verfily_code":"",
-"expect_val":""
-}
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.基于用例1的登录状态
-2.定位退出按钮，点击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定位到登录页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"expect_val":True
-}
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"phone":"18352538376",
-"verfily_code":"",
-"expect_val":True
-}
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"phone":"18352538378",
-"verfily_code":"",
-"expect_val":True
-}
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -210,36 +54,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -505,168 +408,281 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.75" customWidth="1"/>
-    <col min="5" max="5" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col width="21.33203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="27" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="24.75" customWidth="1" min="4" max="4"/>
+    <col width="20.58203125" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>用例id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>动作</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>数据</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>断言结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="252" customHeight="1">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>注册公司管理员</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>1.打开网页
+2.定位隐私条款单选框，点击
+3.定位注册公司系统按钮，点击
+4.定位公司管理员选框，点击
+5.定位完成按钮，点击
+6.定位公司名称输入框，输入没有注册过的公司名
+7.定位下一步按钮，点击
+8.定位用户名输入框，输入没有注册过的用户名
+9.定位邮箱输入框，输入正确格式的输入框
+10.定位电话号码输入框，输入没有注册过的电话号码
+11.定位获取验证码按钮，点击
+12.定位验证码输入框，输入正确的验证码
+13.定位确定按钮，点击</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>{'company_name': 'Company11181839', 'company_address': 'CAddress11181839', 'admin_name': 'admin11181839', 'admin_email': '13111181839@qq.com', 'admin_phone': '13111181839', 'verfily_code': '', 'expect_val': True}</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>定位到"注册成功"字符</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="266" customHeight="1">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="252" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="266" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>注册普通用户</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>1.打开网页
+2.定位隐私条款单选框，点击
+3.定位注册公司系统按钮，点击
+4.定位公司员工选框，点击
+5.定位完成按钮，点击
+6.定位真实姓名输入框，输入正确的名称
+7.定位企业名称框，输入正确的名称
+8.定位企业名称下拉列表，选择正确的企业
+9.定位邮箱输入框，输入正确格式的邮箱
+10.定位联系电话号码输入框，输入没有注册过的电话号码
+11.定位验证码获取按钮，点击
+12.定位验证码输入框，输入正确的验证码
+13.定位完成按钮，点击</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>{'employ_name': 'employ11181839', 'company_name': 'Company11181839', 'employ_email': '13111181840@qq.com', 'employ_address': 'EAddress11181839', 'employ_phone': '13111181840', 'verfily_code': '', 'expect_val': True}</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>定位到"注册成功"字符</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="4"/>
-    <col min="2" max="2" width="18.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.08203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="25.58203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="4"/>
+    <col width="8.6640625" customWidth="1" style="4" min="1" max="1"/>
+    <col width="18.83203125" customWidth="1" style="4" min="2" max="2"/>
+    <col width="36.08203125" customWidth="1" style="4" min="3" max="3"/>
+    <col width="25.58203125" customWidth="1" style="4" min="4" max="4"/>
+    <col width="19.25" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="8.6640625" customWidth="1" style="4" min="6" max="6"/>
+    <col width="8.6640625" customWidth="1" style="4" min="7" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>用例id</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>动作</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>数据</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>断言结果</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="84" customHeight="1">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>普通用户登录</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>1.打开网页
+2.定位手机号输入框，输入正确的手机号
+3.定位验证码获取按钮，点击
+4.定位验证码输入框，输入正确的验证码
+5.定位登录按钮，点击</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{
+"phone":"18352538376",
+"verfily_code":"",
+"expect_val":True
+}
+</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>定位到各个菜单目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="56" customHeight="1">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>退出登录</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>1.基于用例1的登录状态
+2.定位退出按钮，点击</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{
+"expect_val":True
+}
+</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>定位到登录页</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="84" customHeight="1">
+      <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="56" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="84" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>管理员用户登录</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>1.打开网页
+2.定位手机号输入框，输入正确的手机号
+3.定位验证码获取按钮，点击
+4.定位验证码输入框，输入正确的验证码
+5.定位登录按钮，点击</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{
+"phone":"18352538378",
+"verfily_code":"",
+"expect_val":True
+}
+</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>定位到各个菜单目录</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>